--- a/RabiConfig/xlsx/UI.xlsx
+++ b/RabiConfig/xlsx/UI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BlackFieldInstruction\BlackFieldInstruction\RabiConfig\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BlackFieldInstruction\RabiConfig\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84DCC174-9DD1-4ACE-B366-923281491C43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96AA165D-D27F-4F08-BE59-91B72BC8696C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5865" yWindow="3705" windowWidth="16605" windowHeight="9735" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="list" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,6 +72,17 @@
   </si>
   <si>
     <t>UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/UI/StageSelectView.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SceneLayer</t>
+  </si>
+  <si>
+    <t>StageSelectView</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -407,9 +418,9 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -426,20 +437,20 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.875" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="18.125" customWidth="1"/>
-    <col min="4" max="4" width="45.25" customWidth="1"/>
-    <col min="5" max="5" width="14.75" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" customWidth="1"/>
+    <col min="4" max="4" width="45.21875" customWidth="1"/>
+    <col min="5" max="5" width="14.77734375" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -456,7 +467,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -473,7 +484,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -490,7 +501,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -507,19 +518,28 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>

--- a/RabiConfig/xlsx/UI.xlsx
+++ b/RabiConfig/xlsx/UI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BlackFieldInstruction\RabiConfig\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96AA165D-D27F-4F08-BE59-91B72BC8696C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3D5BD57-2113-42A1-BB52-1FABAC71F41F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="list" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,6 +83,18 @@
   </si>
   <si>
     <t>StageSelectView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/UI/PauseView.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NormalLayer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PauseView</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -418,9 +430,9 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -440,17 +452,17 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" customWidth="1"/>
+    <col min="1" max="1" width="13.875" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" customWidth="1"/>
-    <col min="4" max="4" width="45.21875" customWidth="1"/>
-    <col min="5" max="5" width="14.77734375" customWidth="1"/>
+    <col min="3" max="3" width="18.125" customWidth="1"/>
+    <col min="4" max="4" width="45.25" customWidth="1"/>
+    <col min="5" max="5" width="14.75" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -467,7 +479,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -484,7 +496,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -501,7 +513,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -518,7 +530,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -533,13 +545,22 @@
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1">
+        <v>100</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>

--- a/RabiConfig/xlsx/UI.xlsx
+++ b/RabiConfig/xlsx/UI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BlackFieldInstruction\RabiConfig\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3D5BD57-2113-42A1-BB52-1FABAC71F41F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17469A65-D1FD-4F7C-9620-224FFDF8E38B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="list" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -95,6 +95,22 @@
   </si>
   <si>
     <t>PauseView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IngameDebugView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/UI/IngameDebugView.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/UI/LoadingView.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoadingView</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -430,9 +446,9 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -446,23 +462,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.875" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="18.125" customWidth="1"/>
-    <col min="4" max="4" width="45.25" customWidth="1"/>
-    <col min="5" max="5" width="14.75" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" customWidth="1"/>
+    <col min="4" max="4" width="45.21875" customWidth="1"/>
+    <col min="5" max="5" width="14.77734375" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -479,7 +495,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -496,7 +512,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -513,7 +529,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -530,7 +546,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -545,7 +561,7 @@
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -560,11 +576,34 @@
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="1">
+        <v>101</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="1">
+        <v>102</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
